--- a/analysis/Table2-Descriptive.xlsx
+++ b/analysis/Table2-Descriptive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Documents\Undergrad\COOP\CANHEART\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0A1CD6-6033-446A-90EB-23C497806A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137AB161-1725-422F-B825-4830A641D7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -103,19 +103,7 @@
     <t>Non-white Canada-born</t>
   </si>
   <si>
-    <t>Non-white immigrant (0-9 years in Canada)</t>
-  </si>
-  <si>
-    <t>Non-white immigrant (10+ years in Canada)</t>
-  </si>
-  <si>
     <t>White Canada-born</t>
-  </si>
-  <si>
-    <t>White immigrant  (0-9 years in Canada)</t>
-  </si>
-  <si>
-    <t>White immigrant (10+ years in Canada)</t>
   </si>
   <si>
     <t>Heart disease</t>
@@ -259,13 +247,25 @@
       <t>: Baseline characteristics of unweighted and weighted total CCHS population from 2000 to 2018, stratified by sex.</t>
     </r>
   </si>
+  <si>
+    <t>Non-white recent immigrant</t>
+  </si>
+  <si>
+    <t>Non-white established immigrant</t>
+  </si>
+  <si>
+    <t>White recent immigrant</t>
+  </si>
+  <si>
+    <t>White established immigrant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -472,10 +472,10 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -485,7 +485,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,7 +494,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,7 +802,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,47 +828,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B34" s="15">
         <v>10543</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B35" s="15">
         <v>18566</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="15">
         <v>389886</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B37" s="15">
         <v>3847</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B38" s="15">
         <v>34195</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="30"/>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B40" s="15">
         <v>36445</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B41" s="15">
         <v>448480</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="30"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" s="15">
         <v>13347</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B44" s="15">
         <v>184947</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B45" s="15">
         <v>180094</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="15">
         <v>90485</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="29"/>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B48" s="15">
         <v>93426</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B49" s="15">
         <v>390569</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="29"/>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B51" s="15">
         <v>15114</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B52" s="15">
         <v>67851</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="31"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B54" s="15">
         <v>38764</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B55" s="15">
         <v>446843</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="31"/>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B57" s="15">
         <v>94381</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B58" s="15">
         <v>167180</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B59" s="15">
         <v>53384</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B60" s="15">
         <v>58110</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="31"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B62" s="15">
         <v>114337</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B63" s="15">
         <v>214882</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B64" s="15">
         <v>155417</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="31"/>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B66" s="15">
         <v>161013</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B67" s="15">
         <v>206979</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B68" s="15">
         <v>96942</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="31"/>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B72" s="15">
         <v>180646</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
